--- a/Data/Lines_2030.xlsx
+++ b/Data/Lines_2030.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +445,7 @@
         <v>0.3</v>
       </c>
       <c r="E2">
-        <v>900</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>-0.3</v>
       </c>
       <c r="E3">
-        <v>900</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -479,7 +479,7 @@
         <v>0.3</v>
       </c>
       <c r="E4">
-        <v>900</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
